--- a/banks/liveoak/catalog/LiveOakDigital_Bank_Catalog.xlsx
+++ b/banks/liveoak/catalog/LiveOakDigital_Bank_Catalog.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10615"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\LiveOak\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jigneshpatel/Documents/GitHub/nymbusolbapp/banks/liveoak/catalog/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC854A0-7E0A-2940-AF89-8859AA3B7D35}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="28500" windowHeight="22620" tabRatio="826" firstSheet="14" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28500" windowHeight="22620" tabRatio="826" firstSheet="14" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_VersionHistory" sheetId="1" r:id="rId1"/>
@@ -34,14 +35,8 @@
     <sheet name="ClientTransactionStatusTypes" sheetId="24" r:id="rId20"/>
     <sheet name="Disclaimers" sheetId="25" r:id="rId21"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -50,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="639">
   <si>
     <t>Catalogue Specification</t>
   </si>
@@ -1934,12 +1929,45 @@
   </si>
   <si>
     <t>01-01-2020</t>
+  </si>
+  <si>
+    <t>payveris-transfers</t>
+  </si>
+  <si>
+    <t>payveris-billpay</t>
+  </si>
+  <si>
+    <t>payrailz-billpay</t>
+  </si>
+  <si>
+    <t>payrailz-p2p</t>
+  </si>
+  <si>
+    <t>payrailz-a2a</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>Payveris Transfer</t>
+  </si>
+  <si>
+    <t>Payveris Billpay</t>
+  </si>
+  <si>
+    <t>Payrailz BillPay</t>
+  </si>
+  <si>
+    <t>Payrailz p2p</t>
+  </si>
+  <si>
+    <t>Payrailz  a2a External transfer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="38">
     <font>
       <sz val="11"/>
@@ -2602,29 +2630,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2643,16 +2648,39 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="4"/>
-    <cellStyle name="Excel Built-in Explanatory Text 2" xfId="5"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Excel Built-in Explanatory Text 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Explanatory Text" xfId="2" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3"/>
-    <cellStyle name="Normal 3" xfId="6"/>
-    <cellStyle name="TableStyleLight1" xfId="7"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 3" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="TableStyleLight1" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2755,7 +2783,7 @@
         <xdr:cNvPr id="2" name="image1.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2798,7 +2826,7 @@
         <xdr:cNvPr id="3" name="image1.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2846,7 +2874,7 @@
         <xdr:cNvPr id="2" name="CustomShape 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2905,7 +2933,7 @@
         <xdr:cNvPr id="2" name="CustomShape 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98E4E72B-C36C-2443-BCA1-781697792000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98E4E72B-C36C-2443-BCA1-781697792000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2959,7 +2987,7 @@
         <xdr:cNvPr id="3" name="CustomShape 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE826903-FC46-A248-914F-97753E43B2EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE826903-FC46-A248-914F-97753E43B2EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3013,7 +3041,7 @@
         <xdr:cNvPr id="4" name="CustomShape 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D52EFFA9-6F72-3142-AE6D-F98A323021C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D52EFFA9-6F72-3142-AE6D-F98A323021C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3067,7 +3095,7 @@
         <xdr:cNvPr id="5" name="CustomShape 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE58AEF7-54D0-A74A-B04A-DB724E95E161}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE58AEF7-54D0-A74A-B04A-DB724E95E161}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3121,7 +3149,7 @@
         <xdr:cNvPr id="6" name="CustomShape 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C200C4B-127A-244B-AA3B-B7941340033F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C200C4B-127A-244B-AA3B-B7941340033F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3175,7 +3203,7 @@
         <xdr:cNvPr id="7" name="CustomShape 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F714DDC1-2380-7F4A-B62A-1A27226A5D92}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F714DDC1-2380-7F4A-B62A-1A27226A5D92}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3229,7 +3257,7 @@
         <xdr:cNvPr id="8" name="CustomShape 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{807F55A6-FA53-8C4D-BD63-9C97E8AD91E9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{807F55A6-FA53-8C4D-BD63-9C97E8AD91E9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3286,7 +3314,7 @@
         <xdr:cNvPr id="9" name="CustomShape 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC34ECDF-B37D-434D-8016-7C0659480D3B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC34ECDF-B37D-434D-8016-7C0659480D3B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3590,27 +3618,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:I65"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.109375"/>
-    <col min="2" max="2" width="10.77734375"/>
-    <col min="3" max="3" width="8.109375"/>
-    <col min="4" max="4" width="6.109375"/>
-    <col min="5" max="5" width="8.109375"/>
+    <col min="1" max="1" width="8.1640625"/>
+    <col min="2" max="2" width="10.83203125"/>
+    <col min="3" max="3" width="8.1640625"/>
+    <col min="4" max="4" width="6.1640625"/>
+    <col min="5" max="5" width="8.1640625"/>
     <col min="6" max="6" width="83.6640625"/>
     <col min="7" max="7" width="10.33203125"/>
-    <col min="9" max="9" width="13.109375"/>
-    <col min="10" max="1025" width="8.44140625"/>
+    <col min="9" max="9" width="13.1640625"/>
+    <col min="10" max="1025" width="8.5"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" ht="35.4">
+    <row r="3" spans="1:9" ht="35">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -3647,22 +3675,22 @@
     </row>
     <row r="6" spans="1:9" ht="153" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" s="131"/>
-      <c r="C6" s="131"/>
-      <c r="D6" s="131"/>
-      <c r="E6" s="131"/>
-      <c r="F6" s="131"/>
-      <c r="G6" s="131"/>
-      <c r="H6" s="131"/>
-      <c r="I6" s="131"/>
+      <c r="B6" s="122"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="122"/>
+      <c r="I6" s="122"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3"/>
-      <c r="B7" s="132"/>
-      <c r="C7" s="132"/>
-      <c r="D7" s="132"/>
-      <c r="E7" s="132"/>
-      <c r="F7" s="132"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="123"/>
+      <c r="D7" s="123"/>
+      <c r="E7" s="123"/>
+      <c r="F7" s="123"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -3672,66 +3700,66 @@
       <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="133" t="s">
+      <c r="C8" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="133"/>
-      <c r="E8" s="133"/>
-      <c r="F8" s="133"/>
+      <c r="D8" s="124"/>
+      <c r="E8" s="124"/>
+      <c r="F8" s="124"/>
       <c r="G8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="133">
+      <c r="H8" s="124">
         <v>2</v>
       </c>
-      <c r="I8" s="133"/>
+      <c r="I8" s="124"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="133" t="s">
+      <c r="C9" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="133"/>
-      <c r="E9" s="133"/>
-      <c r="F9" s="133"/>
+      <c r="D9" s="124"/>
+      <c r="E9" s="124"/>
+      <c r="F9" s="124"/>
       <c r="G9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="134"/>
-      <c r="I9" s="134"/>
+      <c r="H9" s="125"/>
+      <c r="I9" s="125"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="133" t="s">
+      <c r="C10" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="133"/>
-      <c r="E10" s="133"/>
-      <c r="F10" s="133"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="124"/>
+      <c r="F10" s="124"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="133"/>
-      <c r="I10" s="133"/>
+      <c r="H10" s="124"/>
+      <c r="I10" s="124"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="135" t="s">
+      <c r="C11" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="135"/>
-      <c r="E11" s="135"/>
-      <c r="F11" s="135"/>
+      <c r="D11" s="126"/>
+      <c r="E11" s="126"/>
+      <c r="F11" s="126"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="136"/>
-      <c r="I11" s="136"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="127"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="3"/>
@@ -3749,325 +3777,325 @@
       <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="130" t="s">
+      <c r="C13" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="130"/>
-      <c r="E13" s="130"/>
-      <c r="F13" s="130"/>
+      <c r="D13" s="128"/>
+      <c r="E13" s="128"/>
+      <c r="F13" s="128"/>
       <c r="G13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="130" t="s">
+      <c r="H13" s="128" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="130"/>
+      <c r="I13" s="128"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="9">
         <v>1</v>
       </c>
-      <c r="C14" s="128" t="s">
+      <c r="C14" s="129" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="128"/>
-      <c r="E14" s="128"/>
-      <c r="F14" s="128"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="129"/>
+      <c r="F14" s="129"/>
       <c r="G14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="128" t="s">
+      <c r="H14" s="129" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="128"/>
+      <c r="I14" s="129"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="9">
         <v>2</v>
       </c>
-      <c r="C15" s="128" t="s">
+      <c r="C15" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="128"/>
-      <c r="E15" s="128"/>
-      <c r="F15" s="128"/>
+      <c r="D15" s="129"/>
+      <c r="E15" s="129"/>
+      <c r="F15" s="129"/>
       <c r="G15" s="10">
         <v>43099</v>
       </c>
-      <c r="H15" s="128" t="s">
+      <c r="H15" s="129" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="128"/>
+      <c r="I15" s="129"/>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="9">
         <v>3</v>
       </c>
-      <c r="C16" s="128" t="s">
+      <c r="C16" s="129" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="128"/>
-      <c r="E16" s="128"/>
-      <c r="F16" s="128"/>
+      <c r="D16" s="129"/>
+      <c r="E16" s="129"/>
+      <c r="F16" s="129"/>
       <c r="G16" s="10">
         <v>43111</v>
       </c>
-      <c r="H16" s="128" t="s">
+      <c r="H16" s="129" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="128"/>
+      <c r="I16" s="129"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1">
       <c r="B17" s="9">
         <v>4</v>
       </c>
-      <c r="C17" s="128" t="s">
+      <c r="C17" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="128"/>
-      <c r="E17" s="128"/>
-      <c r="F17" s="128"/>
+      <c r="D17" s="129"/>
+      <c r="E17" s="129"/>
+      <c r="F17" s="129"/>
       <c r="G17" s="10">
         <v>43122</v>
       </c>
-      <c r="H17" s="128" t="s">
+      <c r="H17" s="129" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="128"/>
+      <c r="I17" s="129"/>
     </row>
     <row r="18" spans="1:9" ht="27.75" customHeight="1">
       <c r="B18" s="9">
         <v>5</v>
       </c>
-      <c r="C18" s="128" t="s">
+      <c r="C18" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="128"/>
-      <c r="E18" s="128"/>
-      <c r="F18" s="128"/>
+      <c r="D18" s="129"/>
+      <c r="E18" s="129"/>
+      <c r="F18" s="129"/>
       <c r="G18" s="10">
         <v>43136</v>
       </c>
-      <c r="H18" s="128" t="s">
+      <c r="H18" s="129" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="128"/>
+      <c r="I18" s="129"/>
     </row>
     <row r="19" spans="1:9" ht="27" customHeight="1">
       <c r="B19" s="9">
         <v>6</v>
       </c>
-      <c r="C19" s="129" t="s">
+      <c r="C19" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="129"/>
-      <c r="E19" s="129"/>
-      <c r="F19" s="129"/>
+      <c r="D19" s="130"/>
+      <c r="E19" s="130"/>
+      <c r="F19" s="130"/>
       <c r="G19" s="10">
         <v>43139</v>
       </c>
-      <c r="H19" s="128" t="s">
+      <c r="H19" s="129" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="128"/>
+      <c r="I19" s="129"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="9">
         <v>7</v>
       </c>
-      <c r="C20" s="129" t="s">
+      <c r="C20" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="129"/>
-      <c r="E20" s="129"/>
-      <c r="F20" s="129"/>
+      <c r="D20" s="130"/>
+      <c r="E20" s="130"/>
+      <c r="F20" s="130"/>
       <c r="G20" s="10">
         <v>43143</v>
       </c>
-      <c r="H20" s="128" t="s">
+      <c r="H20" s="129" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="128"/>
+      <c r="I20" s="129"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="9">
         <v>8</v>
       </c>
-      <c r="C21" s="129" t="s">
+      <c r="C21" s="130" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="129"/>
-      <c r="E21" s="129"/>
-      <c r="F21" s="129"/>
+      <c r="D21" s="130"/>
+      <c r="E21" s="130"/>
+      <c r="F21" s="130"/>
       <c r="G21" s="10">
         <v>43166</v>
       </c>
-      <c r="H21" s="128" t="s">
+      <c r="H21" s="129" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="128"/>
+      <c r="I21" s="129"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1">
       <c r="B22" s="9">
         <v>9</v>
       </c>
-      <c r="C22" s="128" t="s">
+      <c r="C22" s="129" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="128"/>
-      <c r="E22" s="128"/>
-      <c r="F22" s="128"/>
+      <c r="D22" s="129"/>
+      <c r="E22" s="129"/>
+      <c r="F22" s="129"/>
       <c r="G22" s="10">
         <v>43167</v>
       </c>
-      <c r="H22" s="128" t="s">
+      <c r="H22" s="129" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="128"/>
+      <c r="I22" s="129"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1">
       <c r="B23" s="9">
         <v>10</v>
       </c>
-      <c r="C23" s="128" t="s">
+      <c r="C23" s="129" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="128"/>
-      <c r="E23" s="128"/>
-      <c r="F23" s="128"/>
+      <c r="D23" s="129"/>
+      <c r="E23" s="129"/>
+      <c r="F23" s="129"/>
       <c r="G23" s="10">
         <v>43203</v>
       </c>
-      <c r="H23" s="128" t="s">
+      <c r="H23" s="129" t="s">
         <v>17</v>
       </c>
-      <c r="I23" s="128"/>
+      <c r="I23" s="129"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1">
       <c r="B24" s="9">
         <v>11</v>
       </c>
-      <c r="C24" s="128" t="s">
+      <c r="C24" s="129" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="128"/>
-      <c r="E24" s="128"/>
-      <c r="F24" s="128"/>
+      <c r="D24" s="129"/>
+      <c r="E24" s="129"/>
+      <c r="F24" s="129"/>
       <c r="G24" s="10">
         <v>43236</v>
       </c>
-      <c r="H24" s="128" t="s">
+      <c r="H24" s="129" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="128"/>
+      <c r="I24" s="129"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="11"/>
       <c r="B25" s="12">
         <v>12</v>
       </c>
-      <c r="C25" s="125" t="s">
+      <c r="C25" s="131" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="125"/>
-      <c r="E25" s="125"/>
-      <c r="F25" s="125"/>
+      <c r="D25" s="131"/>
+      <c r="E25" s="131"/>
+      <c r="F25" s="131"/>
       <c r="G25" s="13">
         <v>43238</v>
       </c>
-      <c r="H25" s="125" t="s">
+      <c r="H25" s="131" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="125"/>
+      <c r="I25" s="131"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="11"/>
       <c r="B26" s="12">
         <v>13</v>
       </c>
-      <c r="C26" s="125" t="s">
+      <c r="C26" s="131" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="125"/>
-      <c r="E26" s="125"/>
-      <c r="F26" s="125"/>
+      <c r="D26" s="131"/>
+      <c r="E26" s="131"/>
+      <c r="F26" s="131"/>
       <c r="G26" s="13">
         <v>43256</v>
       </c>
-      <c r="H26" s="125" t="s">
+      <c r="H26" s="131" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="125"/>
+      <c r="I26" s="131"/>
     </row>
     <row r="27" spans="1:9">
       <c r="B27" s="12">
         <v>14</v>
       </c>
-      <c r="C27" s="125" t="s">
+      <c r="C27" s="131" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="125"/>
-      <c r="E27" s="125"/>
-      <c r="F27" s="125"/>
+      <c r="D27" s="131"/>
+      <c r="E27" s="131"/>
+      <c r="F27" s="131"/>
       <c r="G27" s="10">
         <v>43265</v>
       </c>
-      <c r="H27" s="125" t="s">
+      <c r="H27" s="131" t="s">
         <v>17</v>
       </c>
-      <c r="I27" s="125"/>
+      <c r="I27" s="131"/>
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="12">
         <v>15</v>
       </c>
-      <c r="C28" s="125" t="s">
+      <c r="C28" s="131" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="125"/>
-      <c r="E28" s="125"/>
-      <c r="F28" s="125"/>
+      <c r="D28" s="131"/>
+      <c r="E28" s="131"/>
+      <c r="F28" s="131"/>
       <c r="G28" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="125" t="s">
+      <c r="H28" s="131" t="s">
         <v>17</v>
       </c>
-      <c r="I28" s="125"/>
+      <c r="I28" s="131"/>
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="12">
         <v>16</v>
       </c>
-      <c r="C29" s="125" t="s">
+      <c r="C29" s="131" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="125"/>
-      <c r="E29" s="125"/>
-      <c r="F29" s="125"/>
+      <c r="D29" s="131"/>
+      <c r="E29" s="131"/>
+      <c r="F29" s="131"/>
       <c r="G29" s="10">
         <v>43411</v>
       </c>
-      <c r="H29" s="125" t="s">
+      <c r="H29" s="131" t="s">
         <v>34</v>
       </c>
-      <c r="I29" s="125"/>
+      <c r="I29" s="131"/>
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="12">
         <v>17</v>
       </c>
-      <c r="C30" s="125" t="s">
+      <c r="C30" s="131" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="125"/>
-      <c r="E30" s="125"/>
-      <c r="F30" s="125"/>
+      <c r="D30" s="131"/>
+      <c r="E30" s="131"/>
+      <c r="F30" s="131"/>
       <c r="G30" s="10">
         <v>43333</v>
       </c>
@@ -4080,504 +4108,405 @@
       <c r="B31" s="12">
         <v>18</v>
       </c>
-      <c r="C31" s="125" t="s">
+      <c r="C31" s="131" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="125"/>
-      <c r="E31" s="125"/>
-      <c r="F31" s="125"/>
+      <c r="D31" s="131"/>
+      <c r="E31" s="131"/>
+      <c r="F31" s="131"/>
       <c r="G31" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H31" s="125" t="s">
+      <c r="H31" s="131" t="s">
         <v>17</v>
       </c>
-      <c r="I31" s="125"/>
+      <c r="I31" s="131"/>
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="12">
         <v>19</v>
       </c>
-      <c r="C32" s="127" t="s">
+      <c r="C32" s="132" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="127"/>
-      <c r="E32" s="127"/>
-      <c r="F32" s="127"/>
+      <c r="D32" s="132"/>
+      <c r="E32" s="132"/>
+      <c r="F32" s="132"/>
       <c r="G32" s="16">
         <v>43346</v>
       </c>
-      <c r="H32" s="125" t="s">
+      <c r="H32" s="131" t="s">
         <v>17</v>
       </c>
-      <c r="I32" s="125"/>
-    </row>
-    <row r="33" spans="1:9" ht="13.95" customHeight="1">
+      <c r="I32" s="131"/>
+    </row>
+    <row r="33" spans="1:9" ht="14" customHeight="1">
       <c r="B33" s="17">
         <v>20</v>
       </c>
-      <c r="C33" s="126" t="s">
+      <c r="C33" s="133" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="126"/>
-      <c r="E33" s="126"/>
-      <c r="F33" s="126"/>
+      <c r="D33" s="133"/>
+      <c r="E33" s="133"/>
+      <c r="F33" s="133"/>
       <c r="G33" s="18">
         <v>43347</v>
       </c>
-      <c r="H33" s="126" t="s">
+      <c r="H33" s="133" t="s">
         <v>40</v>
       </c>
-      <c r="I33" s="126"/>
-    </row>
-    <row r="34" spans="1:9" ht="13.95" customHeight="1">
+      <c r="I33" s="133"/>
+    </row>
+    <row r="34" spans="1:9" ht="14" customHeight="1">
       <c r="B34" s="17">
         <v>21</v>
       </c>
-      <c r="C34" s="126" t="s">
+      <c r="C34" s="133" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="126"/>
-      <c r="E34" s="126"/>
-      <c r="F34" s="126"/>
+      <c r="D34" s="133"/>
+      <c r="E34" s="133"/>
+      <c r="F34" s="133"/>
       <c r="G34" s="18">
         <v>43349</v>
       </c>
-      <c r="H34" s="126" t="s">
+      <c r="H34" s="133" t="s">
         <v>40</v>
       </c>
-      <c r="I34" s="126"/>
+      <c r="I34" s="133"/>
     </row>
     <row r="35" spans="1:9">
       <c r="B35" s="12"/>
-      <c r="C35" s="123"/>
-      <c r="D35" s="123"/>
-      <c r="E35" s="123"/>
-      <c r="F35" s="123"/>
+      <c r="C35" s="134"/>
+      <c r="D35" s="134"/>
+      <c r="E35" s="134"/>
+      <c r="F35" s="134"/>
       <c r="G35" s="19"/>
-      <c r="H35" s="125"/>
-      <c r="I35" s="125"/>
+      <c r="H35" s="131"/>
+      <c r="I35" s="131"/>
     </row>
     <row r="36" spans="1:9">
       <c r="B36" s="12"/>
-      <c r="C36" s="122"/>
-      <c r="D36" s="122"/>
-      <c r="E36" s="122"/>
-      <c r="F36" s="122"/>
+      <c r="C36" s="135"/>
+      <c r="D36" s="135"/>
+      <c r="E36" s="135"/>
+      <c r="F36" s="135"/>
       <c r="G36" s="19"/>
-      <c r="H36" s="125"/>
-      <c r="I36" s="125"/>
+      <c r="H36" s="131"/>
+      <c r="I36" s="131"/>
     </row>
     <row r="37" spans="1:9">
       <c r="B37" s="12"/>
-      <c r="C37" s="123"/>
-      <c r="D37" s="123"/>
-      <c r="E37" s="123"/>
-      <c r="F37" s="123"/>
+      <c r="C37" s="134"/>
+      <c r="D37" s="134"/>
+      <c r="E37" s="134"/>
+      <c r="F37" s="134"/>
       <c r="G37" s="19"/>
-      <c r="H37" s="125"/>
-      <c r="I37" s="125"/>
+      <c r="H37" s="131"/>
+      <c r="I37" s="131"/>
     </row>
     <row r="38" spans="1:9">
       <c r="B38" s="12"/>
-      <c r="C38" s="123"/>
-      <c r="D38" s="123"/>
-      <c r="E38" s="123"/>
-      <c r="F38" s="123"/>
+      <c r="C38" s="134"/>
+      <c r="D38" s="134"/>
+      <c r="E38" s="134"/>
+      <c r="F38" s="134"/>
       <c r="G38" s="19"/>
-      <c r="H38" s="125"/>
-      <c r="I38" s="125"/>
+      <c r="H38" s="131"/>
+      <c r="I38" s="131"/>
     </row>
     <row r="39" spans="1:9">
       <c r="B39" s="12"/>
-      <c r="C39" s="122"/>
-      <c r="D39" s="122"/>
-      <c r="E39" s="122"/>
-      <c r="F39" s="122"/>
+      <c r="C39" s="135"/>
+      <c r="D39" s="135"/>
+      <c r="E39" s="135"/>
+      <c r="F39" s="135"/>
       <c r="G39" s="19"/>
-      <c r="H39" s="125"/>
-      <c r="I39" s="125"/>
+      <c r="H39" s="131"/>
+      <c r="I39" s="131"/>
     </row>
     <row r="40" spans="1:9">
       <c r="B40" s="12"/>
-      <c r="C40" s="122"/>
-      <c r="D40" s="122"/>
-      <c r="E40" s="122"/>
-      <c r="F40" s="122"/>
+      <c r="C40" s="135"/>
+      <c r="D40" s="135"/>
+      <c r="E40" s="135"/>
+      <c r="F40" s="135"/>
       <c r="G40" s="19"/>
-      <c r="H40" s="125"/>
-      <c r="I40" s="125"/>
+      <c r="H40" s="131"/>
+      <c r="I40" s="131"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1"/>
       <c r="B41" s="12"/>
-      <c r="C41" s="122"/>
-      <c r="D41" s="122"/>
-      <c r="E41" s="122"/>
-      <c r="F41" s="122"/>
+      <c r="C41" s="135"/>
+      <c r="D41" s="135"/>
+      <c r="E41" s="135"/>
+      <c r="F41" s="135"/>
       <c r="G41" s="19"/>
-      <c r="H41" s="125"/>
-      <c r="I41" s="125"/>
+      <c r="H41" s="131"/>
+      <c r="I41" s="131"/>
     </row>
     <row r="42" spans="1:9">
       <c r="B42" s="12"/>
-      <c r="C42" s="122"/>
-      <c r="D42" s="122"/>
-      <c r="E42" s="122"/>
-      <c r="F42" s="122"/>
+      <c r="C42" s="135"/>
+      <c r="D42" s="135"/>
+      <c r="E42" s="135"/>
+      <c r="F42" s="135"/>
       <c r="G42" s="19"/>
-      <c r="H42" s="125"/>
-      <c r="I42" s="125"/>
+      <c r="H42" s="131"/>
+      <c r="I42" s="131"/>
     </row>
     <row r="43" spans="1:9">
       <c r="B43" s="12"/>
-      <c r="C43" s="122"/>
-      <c r="D43" s="122"/>
-      <c r="E43" s="122"/>
-      <c r="F43" s="122"/>
+      <c r="C43" s="135"/>
+      <c r="D43" s="135"/>
+      <c r="E43" s="135"/>
+      <c r="F43" s="135"/>
       <c r="G43" s="19"/>
-      <c r="H43" s="125"/>
-      <c r="I43" s="125"/>
+      <c r="H43" s="131"/>
+      <c r="I43" s="131"/>
     </row>
     <row r="44" spans="1:9">
       <c r="B44" s="12"/>
-      <c r="C44" s="122"/>
-      <c r="D44" s="122"/>
-      <c r="E44" s="122"/>
-      <c r="F44" s="122"/>
+      <c r="C44" s="135"/>
+      <c r="D44" s="135"/>
+      <c r="E44" s="135"/>
+      <c r="F44" s="135"/>
       <c r="G44" s="19"/>
-      <c r="H44" s="125"/>
-      <c r="I44" s="125"/>
+      <c r="H44" s="131"/>
+      <c r="I44" s="131"/>
     </row>
     <row r="45" spans="1:9">
       <c r="B45" s="12"/>
-      <c r="C45" s="122"/>
-      <c r="D45" s="122"/>
-      <c r="E45" s="122"/>
-      <c r="F45" s="122"/>
+      <c r="C45" s="135"/>
+      <c r="D45" s="135"/>
+      <c r="E45" s="135"/>
+      <c r="F45" s="135"/>
       <c r="G45" s="19"/>
-      <c r="H45" s="125"/>
-      <c r="I45" s="125"/>
+      <c r="H45" s="131"/>
+      <c r="I45" s="131"/>
     </row>
     <row r="46" spans="1:9">
       <c r="B46" s="12"/>
-      <c r="C46" s="122"/>
-      <c r="D46" s="122"/>
-      <c r="E46" s="122"/>
-      <c r="F46" s="122"/>
+      <c r="C46" s="135"/>
+      <c r="D46" s="135"/>
+      <c r="E46" s="135"/>
+      <c r="F46" s="135"/>
       <c r="G46" s="19"/>
-      <c r="H46" s="125"/>
-      <c r="I46" s="125"/>
+      <c r="H46" s="131"/>
+      <c r="I46" s="131"/>
     </row>
     <row r="47" spans="1:9">
       <c r="B47" s="12"/>
-      <c r="C47" s="124"/>
-      <c r="D47" s="124"/>
-      <c r="E47" s="124"/>
-      <c r="F47" s="124"/>
+      <c r="C47" s="136"/>
+      <c r="D47" s="136"/>
+      <c r="E47" s="136"/>
+      <c r="F47" s="136"/>
       <c r="G47" s="19"/>
-      <c r="H47" s="125"/>
-      <c r="I47" s="125"/>
+      <c r="H47" s="131"/>
+      <c r="I47" s="131"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1"/>
       <c r="B48" s="12"/>
-      <c r="C48" s="124"/>
-      <c r="D48" s="124"/>
-      <c r="E48" s="124"/>
-      <c r="F48" s="124"/>
+      <c r="C48" s="136"/>
+      <c r="D48" s="136"/>
+      <c r="E48" s="136"/>
+      <c r="F48" s="136"/>
       <c r="G48" s="19"/>
-      <c r="H48" s="125"/>
-      <c r="I48" s="125"/>
+      <c r="H48" s="131"/>
+      <c r="I48" s="131"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1"/>
       <c r="B49" s="12"/>
-      <c r="C49" s="124"/>
-      <c r="D49" s="124"/>
-      <c r="E49" s="124"/>
-      <c r="F49" s="124"/>
+      <c r="C49" s="136"/>
+      <c r="D49" s="136"/>
+      <c r="E49" s="136"/>
+      <c r="F49" s="136"/>
       <c r="G49" s="19"/>
-      <c r="H49" s="125"/>
-      <c r="I49" s="125"/>
+      <c r="H49" s="131"/>
+      <c r="I49" s="131"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1"/>
       <c r="B50" s="12"/>
-      <c r="C50" s="124"/>
-      <c r="D50" s="124"/>
-      <c r="E50" s="124"/>
-      <c r="F50" s="124"/>
+      <c r="C50" s="136"/>
+      <c r="D50" s="136"/>
+      <c r="E50" s="136"/>
+      <c r="F50" s="136"/>
       <c r="G50" s="19"/>
-      <c r="H50" s="125"/>
-      <c r="I50" s="125"/>
+      <c r="H50" s="131"/>
+      <c r="I50" s="131"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1"/>
       <c r="B51" s="12"/>
-      <c r="C51" s="122"/>
-      <c r="D51" s="122"/>
-      <c r="E51" s="122"/>
-      <c r="F51" s="122"/>
+      <c r="C51" s="135"/>
+      <c r="D51" s="135"/>
+      <c r="E51" s="135"/>
+      <c r="F51" s="135"/>
       <c r="G51" s="19"/>
-      <c r="H51" s="123"/>
-      <c r="I51" s="123"/>
+      <c r="H51" s="134"/>
+      <c r="I51" s="134"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1"/>
       <c r="B52" s="12"/>
-      <c r="C52" s="122"/>
-      <c r="D52" s="122"/>
-      <c r="E52" s="122"/>
-      <c r="F52" s="122"/>
+      <c r="C52" s="135"/>
+      <c r="D52" s="135"/>
+      <c r="E52" s="135"/>
+      <c r="F52" s="135"/>
       <c r="G52" s="19"/>
-      <c r="H52" s="123"/>
-      <c r="I52" s="123"/>
+      <c r="H52" s="134"/>
+      <c r="I52" s="134"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1"/>
       <c r="B53" s="12"/>
-      <c r="C53" s="122"/>
-      <c r="D53" s="122"/>
-      <c r="E53" s="122"/>
-      <c r="F53" s="122"/>
+      <c r="C53" s="135"/>
+      <c r="D53" s="135"/>
+      <c r="E53" s="135"/>
+      <c r="F53" s="135"/>
       <c r="G53" s="19"/>
-      <c r="H53" s="123"/>
-      <c r="I53" s="123"/>
+      <c r="H53" s="134"/>
+      <c r="I53" s="134"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1"/>
       <c r="B54" s="12"/>
-      <c r="C54" s="122"/>
-      <c r="D54" s="122"/>
-      <c r="E54" s="122"/>
-      <c r="F54" s="122"/>
+      <c r="C54" s="135"/>
+      <c r="D54" s="135"/>
+      <c r="E54" s="135"/>
+      <c r="F54" s="135"/>
       <c r="G54" s="19"/>
-      <c r="H54" s="123"/>
-      <c r="I54" s="123"/>
+      <c r="H54" s="134"/>
+      <c r="I54" s="134"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1"/>
       <c r="B55" s="12"/>
-      <c r="C55" s="122"/>
-      <c r="D55" s="122"/>
-      <c r="E55" s="122"/>
-      <c r="F55" s="122"/>
+      <c r="C55" s="135"/>
+      <c r="D55" s="135"/>
+      <c r="E55" s="135"/>
+      <c r="F55" s="135"/>
       <c r="G55" s="19"/>
-      <c r="H55" s="123"/>
-      <c r="I55" s="123"/>
+      <c r="H55" s="134"/>
+      <c r="I55" s="134"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1"/>
       <c r="B56" s="12"/>
-      <c r="C56" s="122"/>
-      <c r="D56" s="122"/>
-      <c r="E56" s="122"/>
-      <c r="F56" s="122"/>
+      <c r="C56" s="135"/>
+      <c r="D56" s="135"/>
+      <c r="E56" s="135"/>
+      <c r="F56" s="135"/>
       <c r="G56" s="19"/>
-      <c r="H56" s="123"/>
-      <c r="I56" s="123"/>
+      <c r="H56" s="134"/>
+      <c r="I56" s="134"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1"/>
       <c r="B57" s="12"/>
-      <c r="C57" s="122"/>
-      <c r="D57" s="122"/>
-      <c r="E57" s="122"/>
-      <c r="F57" s="122"/>
+      <c r="C57" s="135"/>
+      <c r="D57" s="135"/>
+      <c r="E57" s="135"/>
+      <c r="F57" s="135"/>
       <c r="G57" s="19"/>
-      <c r="H57" s="123"/>
-      <c r="I57" s="123"/>
+      <c r="H57" s="134"/>
+      <c r="I57" s="134"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1"/>
       <c r="B58" s="12"/>
-      <c r="C58" s="122"/>
-      <c r="D58" s="122"/>
-      <c r="E58" s="122"/>
-      <c r="F58" s="122"/>
+      <c r="C58" s="135"/>
+      <c r="D58" s="135"/>
+      <c r="E58" s="135"/>
+      <c r="F58" s="135"/>
       <c r="G58" s="19"/>
-      <c r="H58" s="123"/>
-      <c r="I58" s="123"/>
+      <c r="H58" s="134"/>
+      <c r="I58" s="134"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1"/>
       <c r="B59" s="12"/>
-      <c r="C59" s="122"/>
-      <c r="D59" s="122"/>
-      <c r="E59" s="122"/>
-      <c r="F59" s="122"/>
+      <c r="C59" s="135"/>
+      <c r="D59" s="135"/>
+      <c r="E59" s="135"/>
+      <c r="F59" s="135"/>
       <c r="G59" s="19"/>
-      <c r="H59" s="123"/>
-      <c r="I59" s="123"/>
+      <c r="H59" s="134"/>
+      <c r="I59" s="134"/>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="1"/>
       <c r="B60" s="12"/>
-      <c r="C60" s="122"/>
-      <c r="D60" s="122"/>
-      <c r="E60" s="122"/>
-      <c r="F60" s="122"/>
+      <c r="C60" s="135"/>
+      <c r="D60" s="135"/>
+      <c r="E60" s="135"/>
+      <c r="F60" s="135"/>
       <c r="G60" s="19"/>
-      <c r="H60" s="122"/>
-      <c r="I60" s="122"/>
+      <c r="H60" s="135"/>
+      <c r="I60" s="135"/>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="1"/>
       <c r="B61" s="12"/>
-      <c r="C61" s="122"/>
-      <c r="D61" s="122"/>
-      <c r="E61" s="122"/>
-      <c r="F61" s="122"/>
+      <c r="C61" s="135"/>
+      <c r="D61" s="135"/>
+      <c r="E61" s="135"/>
+      <c r="F61" s="135"/>
       <c r="G61" s="19"/>
-      <c r="H61" s="122"/>
-      <c r="I61" s="122"/>
+      <c r="H61" s="135"/>
+      <c r="I61" s="135"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1"/>
       <c r="B62" s="12"/>
-      <c r="C62" s="122"/>
-      <c r="D62" s="122"/>
-      <c r="E62" s="122"/>
-      <c r="F62" s="122"/>
+      <c r="C62" s="135"/>
+      <c r="D62" s="135"/>
+      <c r="E62" s="135"/>
+      <c r="F62" s="135"/>
       <c r="G62" s="19"/>
-      <c r="H62" s="122"/>
-      <c r="I62" s="122"/>
+      <c r="H62" s="135"/>
+      <c r="I62" s="135"/>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1"/>
       <c r="B63" s="12"/>
-      <c r="C63" s="122"/>
-      <c r="D63" s="122"/>
-      <c r="E63" s="122"/>
-      <c r="F63" s="122"/>
+      <c r="C63" s="135"/>
+      <c r="D63" s="135"/>
+      <c r="E63" s="135"/>
+      <c r="F63" s="135"/>
       <c r="G63" s="19"/>
-      <c r="H63" s="122"/>
-      <c r="I63" s="122"/>
+      <c r="H63" s="135"/>
+      <c r="I63" s="135"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1"/>
       <c r="B64" s="12"/>
-      <c r="C64" s="122"/>
-      <c r="D64" s="122"/>
-      <c r="E64" s="122"/>
-      <c r="F64" s="122"/>
+      <c r="C64" s="135"/>
+      <c r="D64" s="135"/>
+      <c r="E64" s="135"/>
+      <c r="F64" s="135"/>
       <c r="G64" s="19"/>
-      <c r="H64" s="122"/>
-      <c r="I64" s="122"/>
+      <c r="H64" s="135"/>
+      <c r="I64" s="135"/>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1"/>
       <c r="B65" s="12"/>
-      <c r="C65" s="122"/>
-      <c r="D65" s="122"/>
-      <c r="E65" s="122"/>
-      <c r="F65" s="122"/>
+      <c r="C65" s="135"/>
+      <c r="D65" s="135"/>
+      <c r="E65" s="135"/>
+      <c r="F65" s="135"/>
       <c r="G65" s="19"/>
-      <c r="H65" s="122"/>
-      <c r="I65" s="122"/>
+      <c r="H65" s="135"/>
+      <c r="I65" s="135"/>
     </row>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="C57:F57"/>
-    <mergeCell ref="H57:I57"/>
     <mergeCell ref="C63:F63"/>
     <mergeCell ref="H63:I63"/>
     <mergeCell ref="C64:F64"/>
@@ -4594,6 +4523,105 @@
     <mergeCell ref="H61:I61"/>
     <mergeCell ref="C62:F62"/>
     <mergeCell ref="H62:I62"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="C57:F57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -4602,20 +4630,20 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="57.6">
+    <row r="1" spans="1:8" ht="64">
       <c r="A1" s="103" t="s">
         <v>278</v>
       </c>
@@ -4629,7 +4657,7 @@
       <c r="G1" s="41"/>
       <c r="H1" s="51"/>
     </row>
-    <row r="2" spans="1:8" ht="28.8">
+    <row r="2" spans="1:8" ht="32">
       <c r="A2" s="103" t="s">
         <v>280</v>
       </c>
@@ -4643,7 +4671,7 @@
       <c r="G2" s="41"/>
       <c r="H2" s="51"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" ht="16">
       <c r="A3" s="103" t="s">
         <v>281</v>
       </c>
@@ -4657,7 +4685,7 @@
       <c r="G3" s="104"/>
       <c r="H3" s="51"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" ht="16">
       <c r="A4" s="103" t="s">
         <v>283</v>
       </c>
@@ -4671,7 +4699,7 @@
       <c r="G4" s="104"/>
       <c r="H4" s="51"/>
     </row>
-    <row r="5" spans="1:8" ht="28.8">
+    <row r="5" spans="1:8" ht="32">
       <c r="A5" s="103" t="s">
         <v>285</v>
       </c>
@@ -4789,7 +4817,7 @@
       <c r="G13" s="26"/>
       <c r="H13" s="51"/>
     </row>
-    <row r="14" spans="1:8" ht="28.8">
+    <row r="14" spans="1:8" ht="32">
       <c r="A14" s="107" t="s">
         <v>487</v>
       </c>
@@ -4815,7 +4843,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="72">
+    <row r="15" spans="1:8" ht="80">
       <c r="A15" s="107"/>
       <c r="B15" s="107" t="s">
         <v>494</v>
@@ -4884,22 +4912,22 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A18" sqref="A18:XFD19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.44140625"/>
+    <col min="1" max="1" width="24.5"/>
     <col min="2" max="2" width="34"/>
-    <col min="3" max="9" width="8.109375"/>
-    <col min="10" max="1025" width="8.44140625"/>
+    <col min="3" max="9" width="8.1640625"/>
+    <col min="10" max="1025" width="8.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="28.8">
+    <row r="1" spans="1:2" ht="32">
       <c r="A1" s="42" t="s">
         <v>278</v>
       </c>
@@ -4907,7 +4935,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="28.8">
+    <row r="2" spans="1:2" ht="32">
       <c r="A2" s="42" t="s">
         <v>280</v>
       </c>
@@ -4915,7 +4943,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="16">
       <c r="A3" s="42" t="s">
         <v>281</v>
       </c>
@@ -4923,7 +4951,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" ht="16">
       <c r="A4" s="42" t="s">
         <v>283</v>
       </c>
@@ -4931,7 +4959,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" ht="16">
       <c r="A5" s="42" t="s">
         <v>285</v>
       </c>
@@ -4963,7 +4991,7 @@
       </c>
       <c r="B9" s="40"/>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" ht="16">
       <c r="A10" s="42" t="s">
         <v>291</v>
       </c>
@@ -4971,7 +4999,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" ht="16">
       <c r="A11" s="23" t="s">
         <v>293</v>
       </c>
@@ -4991,7 +5019,7 @@
       </c>
       <c r="B13" s="28"/>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" ht="16">
       <c r="A14" s="31" t="s">
         <v>374</v>
       </c>
@@ -4999,7 +5027,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" ht="16">
       <c r="A15" s="34" t="s">
         <v>375</v>
       </c>
@@ -5007,7 +5035,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" ht="16">
       <c r="A16" s="31" t="s">
         <v>368</v>
       </c>
@@ -5110,20 +5138,20 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:Z51"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.109375"/>
+    <col min="1" max="1" width="28.1640625"/>
     <col min="2" max="2" width="31.33203125"/>
     <col min="3" max="3" width="31.6640625"/>
-    <col min="4" max="26" width="8.109375"/>
-    <col min="27" max="1025" width="8.44140625"/>
+    <col min="4" max="26" width="8.1640625"/>
+    <col min="27" max="1025" width="8.5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
@@ -5406,7 +5434,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" ht="16">
       <c r="A10" s="42" t="s">
         <v>291</v>
       </c>
@@ -5532,7 +5560,7 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" ht="16">
       <c r="A14" s="31" t="s">
         <v>378</v>
       </c>
@@ -5566,7 +5594,7 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" ht="16">
       <c r="A15" s="34"/>
       <c r="B15" s="34"/>
       <c r="C15" s="34" t="s">
@@ -5596,7 +5624,7 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" ht="16">
       <c r="A16" s="36"/>
       <c r="B16" s="31"/>
       <c r="C16" s="36" t="s">
@@ -5626,7 +5654,7 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" spans="1:26" ht="17.399999999999999">
+    <row r="17" spans="1:26" ht="18">
       <c r="A17" s="1">
         <v>101</v>
       </c>
@@ -6388,20 +6416,20 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.109375"/>
+    <col min="1" max="1" width="28.1640625"/>
     <col min="2" max="2" width="31.33203125"/>
     <col min="3" max="3" width="32.6640625"/>
-    <col min="4" max="6" width="8.109375"/>
-    <col min="7" max="1025" width="8.44140625"/>
+    <col min="4" max="6" width="8.1640625"/>
+    <col min="7" max="1025" width="8.5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1">
@@ -6504,7 +6532,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" ht="16">
       <c r="A10" s="42" t="s">
         <v>291</v>
       </c>
@@ -6550,7 +6578,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" ht="16">
       <c r="A14" s="31" t="s">
         <v>381</v>
       </c>
@@ -6564,7 +6592,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" ht="16">
       <c r="A15" s="34"/>
       <c r="B15" s="34"/>
       <c r="C15" s="34" t="s">
@@ -6574,7 +6602,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" ht="16">
       <c r="A16" s="36"/>
       <c r="B16" s="31"/>
       <c r="C16" s="36" t="s">
@@ -6584,7 +6612,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" ht="17.399999999999999">
+    <row r="17" spans="1:6" ht="18">
       <c r="A17" s="1">
         <v>101</v>
       </c>
@@ -6746,23 +6774,23 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.44140625"/>
+    <col min="1" max="1" width="24.5"/>
     <col min="2" max="2" width="18.33203125"/>
-    <col min="3" max="3" width="16.109375"/>
+    <col min="3" max="3" width="16.1640625"/>
     <col min="4" max="4" width="16.6640625"/>
-    <col min="5" max="10" width="24.44140625"/>
-    <col min="11" max="11" width="51.44140625"/>
+    <col min="5" max="10" width="24.5"/>
+    <col min="11" max="11" width="51.5"/>
     <col min="12" max="12" width="27.33203125"/>
-    <col min="13" max="1025" width="8.44140625"/>
+    <col min="13" max="1025" width="8.5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1">
@@ -6919,7 +6947,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" ht="16">
       <c r="A10" s="42" t="s">
         <v>291</v>
       </c>
@@ -6989,7 +7017,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" ht="16">
       <c r="A14" s="31" t="s">
         <v>378</v>
       </c>
@@ -7025,7 +7053,7 @@
       </c>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" ht="16">
       <c r="A15" s="34"/>
       <c r="B15" s="34"/>
       <c r="C15" s="34"/>
@@ -7041,7 +7069,7 @@
       </c>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" ht="16">
       <c r="A16" s="36"/>
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
@@ -7057,7 +7085,7 @@
       </c>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" ht="17.399999999999999">
+    <row r="17" spans="1:12" ht="18">
       <c r="A17" s="1">
         <v>101</v>
       </c>
@@ -7577,28 +7605,28 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.44140625"/>
-    <col min="2" max="2" width="28.109375"/>
-    <col min="3" max="3" width="10.77734375"/>
-    <col min="4" max="4" width="17.44140625"/>
-    <col min="5" max="5" width="15.77734375"/>
-    <col min="6" max="6" width="28.77734375"/>
-    <col min="7" max="1025" width="8.44140625"/>
+    <col min="1" max="1" width="25.5"/>
+    <col min="2" max="2" width="28.1640625"/>
+    <col min="3" max="3" width="10.83203125"/>
+    <col min="4" max="4" width="17.5"/>
+    <col min="5" max="5" width="15.83203125"/>
+    <col min="6" max="6" width="28.83203125"/>
+    <col min="7" max="1025" width="8.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.8">
+    <row r="1" spans="1:6" ht="32">
       <c r="A1" s="42" t="s">
         <v>278</v>
       </c>
@@ -7610,7 +7638,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="28.8">
+    <row r="2" spans="1:6" ht="32">
       <c r="A2" s="42" t="s">
         <v>280</v>
       </c>
@@ -7622,7 +7650,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" ht="16">
       <c r="A3" s="42" t="s">
         <v>281</v>
       </c>
@@ -7634,7 +7662,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" ht="16">
       <c r="A4" s="42" t="s">
         <v>283</v>
       </c>
@@ -7698,7 +7726,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" ht="16">
       <c r="A10" s="42" t="s">
         <v>291</v>
       </c>
@@ -7742,7 +7770,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" ht="16">
       <c r="A14" s="31" t="s">
         <v>378</v>
       </c>
@@ -7952,26 +7980,26 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView topLeftCell="A11" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="A51" sqref="A51:XFD51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="64.33203125"/>
     <col min="2" max="2" width="77.33203125"/>
-    <col min="3" max="3" width="39.109375"/>
-    <col min="4" max="4" width="15.44140625"/>
+    <col min="3" max="3" width="39.1640625"/>
+    <col min="4" max="4" width="15.5"/>
     <col min="5" max="6" width="8.33203125"/>
-    <col min="7" max="7" width="20.109375"/>
-    <col min="8" max="8" width="45.44140625"/>
+    <col min="7" max="7" width="20.1640625"/>
+    <col min="8" max="8" width="45.5"/>
     <col min="9" max="1025" width="8.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="16">
       <c r="A1" s="23" t="s">
         <v>278</v>
       </c>
@@ -7980,7 +8008,7 @@
       </c>
       <c r="H1" s="24"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" ht="16">
       <c r="A2" s="23" t="s">
         <v>280</v>
       </c>
@@ -7989,7 +8017,7 @@
       </c>
       <c r="H2" s="24"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" ht="16">
       <c r="A3" s="23" t="s">
         <v>281</v>
       </c>
@@ -7998,7 +8026,7 @@
       </c>
       <c r="H3" s="25"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" ht="16">
       <c r="A4" s="23" t="s">
         <v>283</v>
       </c>
@@ -8007,7 +8035,7 @@
       </c>
       <c r="H4" s="25"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" ht="16">
       <c r="A5" s="23" t="s">
         <v>285</v>
       </c>
@@ -8045,7 +8073,7 @@
       <c r="B9" s="22"/>
       <c r="H9" s="22"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" ht="16">
       <c r="A10" s="23" t="s">
         <v>291</v>
       </c>
@@ -8077,7 +8105,7 @@
       <c r="B13" s="28"/>
       <c r="H13" s="22"/>
     </row>
-    <row r="14" spans="1:9" ht="28.8">
+    <row r="14" spans="1:9" ht="16">
       <c r="A14" s="30" t="s">
         <v>399</v>
       </c>
@@ -8466,7 +8494,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="17.399999999999999">
+    <row r="33" spans="1:8" ht="18">
       <c r="A33" t="s">
         <v>436</v>
       </c>
@@ -8835,7 +8863,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="17.399999999999999">
+    <row r="51" spans="1:8" ht="18">
       <c r="A51" s="110" t="s">
         <v>595</v>
       </c>
@@ -8865,16 +8893,16 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="R39" sqref="R39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.2" customHeight="1">
+    <row r="1" spans="1:7" ht="16.25" customHeight="1">
       <c r="A1" s="23" t="s">
         <v>278</v>
       </c>
@@ -8883,7 +8911,7 @@
       </c>
       <c r="G1" s="24"/>
     </row>
-    <row r="2" spans="1:7" ht="13.95" customHeight="1">
+    <row r="2" spans="1:7" ht="14" customHeight="1">
       <c r="A2" s="23" t="s">
         <v>280</v>
       </c>
@@ -8892,7 +8920,7 @@
       </c>
       <c r="G2" s="24"/>
     </row>
-    <row r="3" spans="1:7" ht="14.7" customHeight="1">
+    <row r="3" spans="1:7" ht="14.75" customHeight="1">
       <c r="A3" s="23" t="s">
         <v>281</v>
       </c>
@@ -8901,7 +8929,7 @@
       </c>
       <c r="G3" s="25"/>
     </row>
-    <row r="4" spans="1:7" ht="15.45" customHeight="1">
+    <row r="4" spans="1:7" ht="15.5" customHeight="1">
       <c r="A4" s="23" t="s">
         <v>283</v>
       </c>
@@ -8910,7 +8938,7 @@
       </c>
       <c r="G4" s="25"/>
     </row>
-    <row r="5" spans="1:7" ht="15.45" customHeight="1">
+    <row r="5" spans="1:7" ht="15.5" customHeight="1">
       <c r="A5" s="23" t="s">
         <v>285</v>
       </c>
@@ -8948,7 +8976,7 @@
       <c r="B9" s="22"/>
       <c r="G9" s="22"/>
     </row>
-    <row r="10" spans="1:7" ht="28.8">
+    <row r="10" spans="1:7" ht="32">
       <c r="A10" s="23" t="s">
         <v>291</v>
       </c>
@@ -8982,7 +9010,7 @@
       </c>
       <c r="G13" s="22"/>
     </row>
-    <row r="14" spans="1:7" ht="72">
+    <row r="14" spans="1:7" ht="64">
       <c r="A14" s="30" t="s">
         <v>459</v>
       </c>
@@ -9314,26 +9342,26 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" style="66" customWidth="1"/>
-    <col min="2" max="2" width="24.44140625" style="66" customWidth="1"/>
+    <col min="1" max="1" width="26.83203125" style="66" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="66" customWidth="1"/>
     <col min="3" max="3" width="19" style="66" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" style="66" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" style="66" customWidth="1"/>
     <col min="6" max="6" width="8.6640625" style="66" customWidth="1"/>
-    <col min="7" max="7" width="23.77734375" style="66" customWidth="1"/>
+    <col min="7" max="7" width="23.83203125" style="66" customWidth="1"/>
     <col min="8" max="8" width="28.6640625" style="66" customWidth="1"/>
-    <col min="9" max="9" width="22.109375" style="66" customWidth="1"/>
+    <col min="9" max="9" width="22.1640625" style="66" customWidth="1"/>
     <col min="10" max="1025" width="8.6640625" style="66" customWidth="1"/>
-    <col min="1026" max="16384" width="8.77734375" style="66"/>
+    <col min="1026" max="16384" width="8.83203125" style="66"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -9345,7 +9373,7 @@
       </c>
       <c r="I1" s="67"/>
     </row>
-    <row r="2" spans="1:9" ht="28.8">
+    <row r="2" spans="1:9" ht="16">
       <c r="A2" s="65" t="s">
         <v>280</v>
       </c>
@@ -9360,7 +9388,7 @@
       <c r="H2" s="67"/>
       <c r="I2" s="67"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" ht="16">
       <c r="A3" s="65" t="s">
         <v>281</v>
       </c>
@@ -9375,7 +9403,7 @@
       <c r="H3" s="68"/>
       <c r="I3" s="68"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" ht="16">
       <c r="A4" s="65" t="s">
         <v>283</v>
       </c>
@@ -9390,7 +9418,7 @@
       <c r="H4" s="68"/>
       <c r="I4" s="68"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" ht="16">
       <c r="A5" s="65" t="s">
         <v>285</v>
       </c>
@@ -9457,7 +9485,7 @@
       <c r="H9" s="69"/>
       <c r="I9" s="69"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" ht="16">
       <c r="A10" s="65" t="s">
         <v>291</v>
       </c>
@@ -9544,7 +9572,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="17.399999999999999">
+    <row r="17" spans="1:3" ht="18">
       <c r="A17" s="74" t="s">
         <v>509</v>
       </c>
@@ -9555,7 +9583,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="17.399999999999999">
+    <row r="18" spans="1:3" ht="18">
       <c r="A18" s="74" t="s">
         <v>569</v>
       </c>
@@ -9566,7 +9594,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="17.399999999999999">
+    <row r="19" spans="1:3" ht="18">
       <c r="A19" s="74" t="s">
         <v>571</v>
       </c>
@@ -9577,7 +9605,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="17.399999999999999">
+    <row r="20" spans="1:3" ht="18">
       <c r="A20" s="74" t="s">
         <v>597</v>
       </c>
@@ -9588,7 +9616,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="17.399999999999999">
+    <row r="21" spans="1:3" ht="18">
       <c r="A21" s="66" t="s">
         <v>599</v>
       </c>
@@ -9599,7 +9627,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="17.399999999999999">
+    <row r="22" spans="1:3" ht="18">
       <c r="A22" s="66" t="s">
         <v>600</v>
       </c>
@@ -9610,7 +9638,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="17.399999999999999">
+    <row r="23" spans="1:3" ht="18">
       <c r="A23" s="66" t="s">
         <v>601</v>
       </c>
@@ -9630,6 +9658,61 @@
       </c>
       <c r="C24" s="66" t="s">
         <v>603</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="66" t="s">
+        <v>628</v>
+      </c>
+      <c r="B25" s="66" t="s">
+        <v>506</v>
+      </c>
+      <c r="C25" s="66" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="66" t="s">
+        <v>629</v>
+      </c>
+      <c r="B26" s="66" t="s">
+        <v>506</v>
+      </c>
+      <c r="C26" s="66" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="66" t="s">
+        <v>630</v>
+      </c>
+      <c r="B27" s="66" t="s">
+        <v>633</v>
+      </c>
+      <c r="C27" s="66" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="66" t="s">
+        <v>631</v>
+      </c>
+      <c r="B28" s="66" t="s">
+        <v>633</v>
+      </c>
+      <c r="C28" s="66" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="66" t="s">
+        <v>632</v>
+      </c>
+      <c r="B29" s="66" t="s">
+        <v>633</v>
+      </c>
+      <c r="C29" s="66" t="s">
+        <v>638</v>
       </c>
     </row>
   </sheetData>
@@ -9639,27 +9722,27 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:AMK33"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.33203125" style="79" customWidth="1"/>
     <col min="2" max="2" width="38.6640625" style="79" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" style="79" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" style="87" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" style="79" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="87" customWidth="1"/>
     <col min="5" max="5" width="10" style="79" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" style="79" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" style="79" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" style="79" customWidth="1"/>
-    <col min="9" max="9" width="18.109375" style="79" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" style="79" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="79" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="79" customWidth="1"/>
+    <col min="9" max="9" width="18.1640625" style="79" customWidth="1"/>
     <col min="10" max="10" width="15.6640625" style="79" customWidth="1"/>
     <col min="11" max="1025" width="7" style="79" customWidth="1"/>
-    <col min="1026" max="16384" width="8.77734375" style="87"/>
+    <col min="1026" max="16384" width="8.83203125" style="87"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -9671,7 +9754,7 @@
       </c>
       <c r="D1" s="80"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" ht="16">
       <c r="A2" s="77" t="s">
         <v>280</v>
       </c>
@@ -9680,7 +9763,7 @@
       </c>
       <c r="D2" s="80"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" ht="16">
       <c r="A3" s="77" t="s">
         <v>281</v>
       </c>
@@ -9689,7 +9772,7 @@
       </c>
       <c r="D3" s="83"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" ht="16">
       <c r="A4" s="77" t="s">
         <v>283</v>
       </c>
@@ -9698,7 +9781,7 @@
       </c>
       <c r="D4" s="83"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" ht="16">
       <c r="A5" s="77" t="s">
         <v>285</v>
       </c>
@@ -9735,7 +9818,7 @@
       <c r="B9" s="81"/>
       <c r="D9" s="80"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" ht="16">
       <c r="A10" s="77" t="s">
         <v>291</v>
       </c>
@@ -9765,7 +9848,7 @@
       <c r="B13" s="85"/>
       <c r="D13" s="80"/>
     </row>
-    <row r="14" spans="1:11" ht="28.8">
+    <row r="14" spans="1:11" ht="16">
       <c r="A14" s="86" t="s">
         <v>352</v>
       </c>
@@ -10171,15 +10254,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="6" width="8.109375"/>
-    <col min="7" max="1025" width="8.44140625"/>
+    <col min="1" max="6" width="8.1640625"/>
+    <col min="7" max="1025" width="8.5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -10258,25 +10341,25 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.77734375" style="87" customWidth="1"/>
-    <col min="2" max="2" width="27.109375" style="87" customWidth="1"/>
-    <col min="3" max="3" width="27.77734375" style="87" customWidth="1"/>
-    <col min="4" max="4" width="89.109375" style="87" customWidth="1"/>
-    <col min="5" max="1020" width="8.109375" style="87" customWidth="1"/>
-    <col min="1021" max="1021" width="8.77734375" style="87" customWidth="1"/>
-    <col min="1022" max="16384" width="8.77734375" style="87"/>
+    <col min="1" max="1" width="24.83203125" style="87" customWidth="1"/>
+    <col min="2" max="2" width="27.1640625" style="87" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" style="87" customWidth="1"/>
+    <col min="4" max="4" width="89.1640625" style="87" customWidth="1"/>
+    <col min="5" max="1020" width="8.1640625" style="87" customWidth="1"/>
+    <col min="1021" max="1021" width="8.83203125" style="87" customWidth="1"/>
+    <col min="1022" max="16384" width="8.83203125" style="87"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.8">
+    <row r="1" spans="1:4" ht="16">
       <c r="A1" s="84" t="s">
         <v>278</v>
       </c>
@@ -10285,7 +10368,7 @@
       </c>
       <c r="C1" s="80"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" ht="16">
       <c r="A2" s="84" t="s">
         <v>280</v>
       </c>
@@ -10294,7 +10377,7 @@
       </c>
       <c r="C2" s="80"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" ht="16">
       <c r="A3" s="84" t="s">
         <v>281</v>
       </c>
@@ -10303,7 +10386,7 @@
       </c>
       <c r="C3" s="83"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" ht="16">
       <c r="A4" s="84" t="s">
         <v>283</v>
       </c>
@@ -10312,7 +10395,7 @@
       </c>
       <c r="C4" s="83"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" ht="16">
       <c r="A5" s="84" t="s">
         <v>285</v>
       </c>
@@ -10349,7 +10432,7 @@
       <c r="B9" s="80"/>
       <c r="C9" s="80"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" ht="16">
       <c r="A10" s="84" t="s">
         <v>291</v>
       </c>
@@ -10381,7 +10464,7 @@
       <c r="B13" s="85"/>
       <c r="C13" s="80"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" ht="16">
       <c r="A14" s="86" t="s">
         <v>349</v>
       </c>
@@ -10395,7 +10478,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" ht="16">
       <c r="A15" s="89" t="s">
         <v>548</v>
       </c>
@@ -10407,7 +10490,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" ht="16">
       <c r="A16" s="90"/>
       <c r="B16" s="90" t="s">
         <v>550</v>
@@ -10459,7 +10542,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.6">
+    <row r="20" spans="1:4" ht="16">
       <c r="A20" s="91">
         <v>146</v>
       </c>
@@ -10501,7 +10584,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.6">
+    <row r="23" spans="1:4" ht="16">
       <c r="A23" s="91">
         <v>155</v>
       </c>
@@ -10630,18 +10713,18 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="77.77734375" customWidth="1"/>
-    <col min="2" max="2" width="60.88671875" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="77.83203125" customWidth="1"/>
+    <col min="2" max="2" width="60.83203125" customWidth="1"/>
+    <col min="3" max="3" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="24" customHeight="1">
@@ -10664,7 +10747,7 @@
       <c r="C2" s="115"/>
       <c r="D2" s="115"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" ht="16">
       <c r="A3" s="113" t="s">
         <v>281</v>
       </c>
@@ -10726,7 +10809,7 @@
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
     </row>
-    <row r="10" spans="1:5" ht="24.6" customHeight="1">
+    <row r="10" spans="1:5" ht="24.5" customHeight="1">
       <c r="A10" s="113" t="s">
         <v>291</v>
       </c>
@@ -10762,7 +10845,7 @@
       <c r="C13" s="41"/>
       <c r="D13" s="41"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" ht="16">
       <c r="A14" s="119" t="s">
         <v>619</v>
       </c>
@@ -10827,15 +10910,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A224"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="6" width="8.109375"/>
-    <col min="7" max="1025" width="8.44140625"/>
+    <col min="1" max="6" width="8.1640625"/>
+    <col min="7" max="1025" width="8.5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -11965,28 +12048,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.44140625"/>
+    <col min="1" max="1" width="25.5"/>
     <col min="2" max="2" width="42.6640625"/>
     <col min="3" max="3" width="35.33203125"/>
     <col min="4" max="4" width="26.6640625" style="22"/>
-    <col min="5" max="5" width="15.77734375" style="22"/>
+    <col min="5" max="5" width="15.83203125" style="22"/>
     <col min="6" max="6" width="12.6640625"/>
-    <col min="7" max="7" width="10.44140625"/>
-    <col min="8" max="8" width="25.77734375"/>
-    <col min="9" max="9" width="34.109375"/>
-    <col min="10" max="1025" width="8.109375"/>
+    <col min="7" max="7" width="10.5"/>
+    <col min="8" max="8" width="25.83203125"/>
+    <col min="9" max="9" width="34.1640625"/>
+    <col min="10" max="1025" width="8.1640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="16">
       <c r="A1" s="23" t="s">
         <v>278</v>
       </c>
@@ -11997,7 +12080,7 @@
       <c r="D1"/>
       <c r="E1" s="24"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" ht="16">
       <c r="A2" s="23" t="s">
         <v>280</v>
       </c>
@@ -12008,7 +12091,7 @@
       <c r="D2"/>
       <c r="E2" s="24"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" ht="16">
       <c r="A3" s="23" t="s">
         <v>281</v>
       </c>
@@ -12019,7 +12102,7 @@
       <c r="D3"/>
       <c r="E3" s="25"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" ht="16">
       <c r="A4" s="23" t="s">
         <v>283</v>
       </c>
@@ -12030,7 +12113,7 @@
       <c r="D4"/>
       <c r="E4" s="25"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" ht="16">
       <c r="A5" s="23" t="s">
         <v>285</v>
       </c>
@@ -12050,7 +12133,7 @@
       <c r="D6"/>
       <c r="E6"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" ht="16">
       <c r="A7" s="23" t="s">
         <v>287</v>
       </c>
@@ -12113,7 +12196,7 @@
       <c r="D13"/>
       <c r="E13"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" ht="16">
       <c r="A14" s="29" t="s">
         <v>292</v>
       </c>
@@ -12134,7 +12217,7 @@
       <c r="H14" s="30"/>
       <c r="I14" s="30"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" ht="16">
       <c r="A15" s="29" t="s">
         <v>301</v>
       </c>
@@ -12155,7 +12238,7 @@
       <c r="H15" s="30"/>
       <c r="I15" s="30"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" ht="16">
       <c r="A16" s="35"/>
       <c r="B16" s="35" t="s">
         <v>306</v>
@@ -12172,7 +12255,7 @@
       <c r="H16" s="30"/>
       <c r="I16" s="30"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" ht="16">
       <c r="A17">
         <v>4</v>
       </c>
@@ -12189,7 +12272,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" ht="16">
       <c r="A18">
         <v>3</v>
       </c>
@@ -12206,7 +12289,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" ht="16">
       <c r="A19">
         <v>2</v>
       </c>
@@ -12240,7 +12323,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" ht="16">
       <c r="A21">
         <v>1</v>
       </c>
@@ -12257,7 +12340,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" ht="16">
       <c r="A22">
         <v>5</v>
       </c>
@@ -12274,7 +12357,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" ht="16">
       <c r="A23">
         <v>7</v>
       </c>
@@ -12291,7 +12374,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.6">
+    <row r="24" spans="1:5" ht="16">
       <c r="A24">
         <v>8</v>
       </c>
@@ -12308,7 +12391,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="72">
+    <row r="25" spans="1:5" ht="80">
       <c r="A25" s="98">
         <v>9</v>
       </c>
@@ -12325,7 +12408,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="86.4">
+    <row r="26" spans="1:5" ht="96">
       <c r="A26" s="98">
         <v>10</v>
       </c>
@@ -12349,23 +12432,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="30.6640625"/>
     <col min="2" max="2" width="46.6640625"/>
-    <col min="3" max="3" width="10.109375"/>
-    <col min="4" max="4" width="73.109375"/>
+    <col min="3" max="3" width="10.1640625"/>
+    <col min="4" max="4" width="73.1640625"/>
     <col min="5" max="1025" width="11.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" ht="16">
       <c r="A1" s="23" t="s">
         <v>278</v>
       </c>
@@ -12374,7 +12457,7 @@
       </c>
       <c r="D1" s="24"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" ht="16">
       <c r="A2" s="23" t="s">
         <v>280</v>
       </c>
@@ -12383,7 +12466,7 @@
       </c>
       <c r="D2" s="24"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" ht="16">
       <c r="A3" s="23" t="s">
         <v>281</v>
       </c>
@@ -12392,7 +12475,7 @@
       </c>
       <c r="D3" s="25"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" ht="16">
       <c r="A4" s="23" t="s">
         <v>283</v>
       </c>
@@ -12438,7 +12521,7 @@
       <c r="B9" s="22"/>
       <c r="D9" s="22"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" ht="16">
       <c r="A10" s="23" t="s">
         <v>291</v>
       </c>
@@ -12468,7 +12551,7 @@
       <c r="B13" s="28"/>
       <c r="D13" s="22"/>
     </row>
-    <row r="14" spans="1:4" ht="43.2">
+    <row r="14" spans="1:4" ht="48">
       <c r="A14" s="30" t="s">
         <v>325</v>
       </c>
@@ -12536,7 +12619,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" ht="16">
       <c r="A20">
         <v>4</v>
       </c>
@@ -12550,7 +12633,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" ht="16">
       <c r="A21">
         <v>5</v>
       </c>
@@ -12564,7 +12647,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" ht="16">
       <c r="A22">
         <v>6</v>
       </c>
@@ -12578,7 +12661,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" ht="16">
       <c r="A23">
         <v>7</v>
       </c>
@@ -12592,7 +12675,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" ht="16">
       <c r="A24">
         <v>8</v>
       </c>
@@ -12673,26 +12756,26 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="32.33203125"/>
-    <col min="2" max="2" width="38.44140625"/>
+    <col min="2" max="2" width="38.5"/>
     <col min="3" max="3" width="26.6640625"/>
     <col min="4" max="4" width="12.6640625"/>
-    <col min="5" max="5" width="10.44140625"/>
+    <col min="5" max="5" width="10.5"/>
     <col min="6" max="6" width="21.6640625"/>
-    <col min="7" max="7" width="34.109375"/>
-    <col min="8" max="1025" width="8.109375"/>
+    <col min="7" max="7" width="34.1640625"/>
+    <col min="8" max="1025" width="8.1640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="43.2">
+    <row r="1" spans="1:7" ht="48">
       <c r="A1" s="23" t="s">
         <v>278</v>
       </c>
@@ -12701,7 +12784,7 @@
       </c>
       <c r="C1" s="27"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="16">
       <c r="A2" s="23" t="s">
         <v>280</v>
       </c>
@@ -12710,7 +12793,7 @@
       </c>
       <c r="C2" s="27"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" ht="16">
       <c r="A3" s="23" t="s">
         <v>281</v>
       </c>
@@ -12719,7 +12802,7 @@
       </c>
       <c r="C3" s="25"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="16">
       <c r="A4" s="23" t="s">
         <v>283</v>
       </c>
@@ -12728,7 +12811,7 @@
       </c>
       <c r="C4" s="25"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" ht="16">
       <c r="A5" s="23" t="s">
         <v>285</v>
       </c>
@@ -12765,7 +12848,7 @@
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" ht="16">
       <c r="A10" s="23" t="s">
         <v>291</v>
       </c>
@@ -12797,7 +12880,7 @@
       <c r="B13" s="28"/>
       <c r="C13" s="41"/>
     </row>
-    <row r="14" spans="1:7" ht="28.8">
+    <row r="14" spans="1:7" ht="16">
       <c r="A14" s="29" t="s">
         <v>337</v>
       </c>
@@ -12820,7 +12903,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" ht="16">
       <c r="A15" s="29" t="s">
         <v>301</v>
       </c>
@@ -13399,28 +13482,28 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Y38"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.44140625"/>
-    <col min="2" max="2" width="29.109375"/>
+    <col min="1" max="1" width="24.5"/>
+    <col min="2" max="2" width="29.1640625"/>
     <col min="3" max="3" width="13.6640625"/>
-    <col min="4" max="4" width="14.77734375"/>
-    <col min="5" max="5" width="12.44140625"/>
-    <col min="6" max="6" width="12.77734375"/>
+    <col min="4" max="4" width="14.83203125"/>
+    <col min="5" max="5" width="12.5"/>
+    <col min="6" max="6" width="12.83203125"/>
     <col min="7" max="7" width="0" hidden="1"/>
-    <col min="8" max="8" width="24.77734375"/>
-    <col min="9" max="9" width="29.109375" customWidth="1"/>
+    <col min="8" max="8" width="24.83203125"/>
+    <col min="9" max="9" width="29.1640625" customWidth="1"/>
     <col min="10" max="10" width="33"/>
     <col min="11" max="11" width="20.6640625"/>
-    <col min="12" max="25" width="8.109375"/>
-    <col min="26" max="1025" width="8.44140625"/>
+    <col min="12" max="25" width="8.1640625"/>
+    <col min="26" max="1025" width="8.5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18" customHeight="1">
@@ -13440,7 +13523,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" ht="16">
       <c r="A2" s="42" t="s">
         <v>280</v>
       </c>
@@ -13457,7 +13540,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" ht="16">
       <c r="A3" s="42" t="s">
         <v>281</v>
       </c>
@@ -13474,7 +13557,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" ht="16">
       <c r="A4" s="42" t="s">
         <v>283</v>
       </c>
@@ -13491,7 +13574,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" ht="16">
       <c r="A5" s="42" t="s">
         <v>285</v>
       </c>
@@ -13568,7 +13651,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" ht="16">
       <c r="A10" s="42" t="s">
         <v>291</v>
       </c>
@@ -13634,7 +13717,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" ht="28.8">
+    <row r="14" spans="1:11" ht="32">
       <c r="A14" s="31" t="s">
         <v>348</v>
       </c>
@@ -13723,7 +13806,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="44"/>
     </row>
-    <row r="17" spans="1:25" s="60" customFormat="1" ht="17.399999999999999">
+    <row r="17" spans="1:25" s="60" customFormat="1" ht="18">
       <c r="A17" s="1">
         <v>101</v>
       </c>
@@ -14112,25 +14195,25 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:Z38"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25.6640625"/>
     <col min="2" max="2" width="26.6640625"/>
     <col min="3" max="3" width="21.33203125"/>
-    <col min="4" max="4" width="20.44140625"/>
+    <col min="4" max="4" width="20.5"/>
     <col min="5" max="5" width="25" customWidth="1"/>
-    <col min="6" max="6" width="12.77734375"/>
+    <col min="6" max="6" width="12.83203125"/>
     <col min="7" max="7" width="17"/>
     <col min="8" max="8" width="15.33203125"/>
-    <col min="9" max="26" width="8.109375"/>
-    <col min="27" max="1025" width="8.44140625"/>
+    <col min="9" max="26" width="8.1640625"/>
+    <col min="27" max="1025" width="8.5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
@@ -14217,7 +14300,7 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" ht="16">
       <c r="A4" s="42" t="s">
         <v>283</v>
       </c>
@@ -14249,7 +14332,7 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" ht="16">
       <c r="A5" s="42" t="s">
         <v>285</v>
       </c>
@@ -14401,7 +14484,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" ht="16">
       <c r="A10" s="42" t="s">
         <v>291</v>
       </c>
@@ -14525,7 +14608,7 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" ht="16">
       <c r="A14" s="31" t="s">
         <v>366</v>
       </c>
@@ -14559,7 +14642,7 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" ht="16">
       <c r="A15" s="34" t="s">
         <v>367</v>
       </c>
@@ -14593,7 +14676,7 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" ht="16">
       <c r="A16" s="31" t="s">
         <v>368</v>
       </c>
@@ -14627,7 +14710,7 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" spans="1:26" s="62" customFormat="1" ht="17.399999999999999">
+    <row r="17" spans="1:26" s="62" customFormat="1" ht="18">
       <c r="A17" s="60">
         <v>101</v>
       </c>
@@ -15258,14 +15341,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="57" customHeight="1">
@@ -15276,7 +15359,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="13.05" customHeight="1">
+    <row r="2" spans="1:2" ht="13" customHeight="1">
       <c r="A2" s="23" t="s">
         <v>280</v>
       </c>
@@ -15284,7 +15367,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="13.05" customHeight="1">
+    <row r="3" spans="1:2" ht="13" customHeight="1">
       <c r="A3" s="23" t="s">
         <v>281</v>
       </c>
@@ -15292,7 +15375,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="13.05" customHeight="1">
+    <row r="4" spans="1:2" ht="13" customHeight="1">
       <c r="A4" s="23" t="s">
         <v>283</v>
       </c>
@@ -15300,7 +15383,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="13.05" customHeight="1">
+    <row r="5" spans="1:2" ht="13" customHeight="1">
       <c r="A5" s="23" t="s">
         <v>285</v>
       </c>
@@ -15308,31 +15391,31 @@
         <v>485</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="13.05" customHeight="1">
+    <row r="6" spans="1:2" ht="13" customHeight="1">
       <c r="A6" s="23" t="s">
         <v>286</v>
       </c>
       <c r="B6" s="22"/>
     </row>
-    <row r="7" spans="1:2" ht="13.05" customHeight="1">
+    <row r="7" spans="1:2" ht="13" customHeight="1">
       <c r="A7" s="23" t="s">
         <v>287</v>
       </c>
       <c r="B7" s="22"/>
     </row>
-    <row r="8" spans="1:2" ht="13.05" customHeight="1">
+    <row r="8" spans="1:2" ht="13" customHeight="1">
       <c r="A8" s="23" t="s">
         <v>289</v>
       </c>
       <c r="B8" s="22"/>
     </row>
-    <row r="9" spans="1:2" ht="13.05" customHeight="1">
+    <row r="9" spans="1:2" ht="13" customHeight="1">
       <c r="A9" s="23" t="s">
         <v>290</v>
       </c>
       <c r="B9" s="22"/>
     </row>
-    <row r="10" spans="1:2" ht="13.05" customHeight="1">
+    <row r="10" spans="1:2" ht="13" customHeight="1">
       <c r="A10" s="23" t="s">
         <v>291</v>
       </c>
@@ -15340,7 +15423,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="13.05" customHeight="1">
+    <row r="11" spans="1:2" ht="13" customHeight="1">
       <c r="A11" s="23" t="s">
         <v>293</v>
       </c>
@@ -15348,19 +15431,19 @@
         <v>373</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="13.05" customHeight="1">
+    <row r="12" spans="1:2" ht="13" customHeight="1">
       <c r="A12" s="23" t="s">
         <v>294</v>
       </c>
       <c r="B12" s="28"/>
     </row>
-    <row r="13" spans="1:2" ht="13.05" customHeight="1">
+    <row r="13" spans="1:2" ht="13" customHeight="1">
       <c r="A13" s="23" t="s">
         <v>296</v>
       </c>
       <c r="B13" s="28"/>
     </row>
-    <row r="14" spans="1:2" ht="13.05" customHeight="1">
+    <row r="14" spans="1:2" ht="13" customHeight="1">
       <c r="A14" s="29" t="s">
         <v>292</v>
       </c>
@@ -15368,15 +15451,15 @@
         <v>487</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="13.05" customHeight="1">
+    <row r="15" spans="1:2" ht="13" customHeight="1">
       <c r="A15" s="29"/>
       <c r="B15" s="29"/>
     </row>
-    <row r="16" spans="1:2" ht="13.05" customHeight="1">
+    <row r="16" spans="1:2" ht="13" customHeight="1">
       <c r="A16" s="35"/>
       <c r="B16" s="35"/>
     </row>
-    <row r="17" spans="1:2" ht="13.05" customHeight="1">
+    <row r="17" spans="1:2" ht="13" customHeight="1">
       <c r="A17">
         <v>1</v>
       </c>
@@ -15384,7 +15467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="13.05" customHeight="1">
+    <row r="18" spans="1:2" ht="13" customHeight="1">
       <c r="A18">
         <v>2</v>
       </c>
@@ -15392,7 +15475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="13.05" customHeight="1">
+    <row r="19" spans="1:2" ht="13" customHeight="1">
       <c r="A19">
         <v>3</v>
       </c>
@@ -15400,7 +15483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="13.05" customHeight="1">
+    <row r="20" spans="1:2" ht="13" customHeight="1">
       <c r="A20">
         <v>4</v>
       </c>
@@ -15408,7 +15491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="13.05" customHeight="1">
+    <row r="21" spans="1:2" ht="13" customHeight="1">
       <c r="A21">
         <v>5</v>
       </c>
@@ -15416,7 +15499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="13.05" customHeight="1">
+    <row r="22" spans="1:2" ht="13" customHeight="1">
       <c r="A22">
         <v>6</v>
       </c>
@@ -15424,7 +15507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="13.05" customHeight="1">
+    <row r="23" spans="1:2" ht="13" customHeight="1">
       <c r="A23">
         <v>7</v>
       </c>
